--- a/xlsx/修昔底德_intext.xlsx
+++ b/xlsx/修昔底德_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
   <si>
     <t>修昔底德</t>
   </si>
@@ -29,13 +29,13 @@
     <t>多伦多</t>
   </si>
   <si>
-    <t>政策_政策_政治學_修昔底德</t>
+    <t>政策_政策_政治学_修昔底德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AE%89%E5%A4%A7%E7%95%A5%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>皇家安大略博物館</t>
+    <t>皇家安大略博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BE%85%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伯羅奔尼撒戰爭</t>
+    <t>伯罗奔尼撒战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>Template talk-古希臘</t>
+    <t>Template talk-古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%96%87%E6%98%8E</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古風時期</t>
+    <t>古风时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>古典希臘時期</t>
+    <t>古典希腊时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘化時代的希臘</t>
+    <t>希腊化时代的希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>達達尼爾海峽</t>
+    <t>达达尼尔海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓王國</t>
+    <t>马其顿王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
   </si>
   <si>
-    <t>底比斯 (希臘)</t>
+    <t>底比斯 (希腊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
   </si>
   <si>
-    <t>溫泉關</t>
+    <t>温泉关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛奧尼亞</t>
+    <t>爱奥尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%BD</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>古希臘殖民地</t>
+    <t>古希腊殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘農業</t>
+    <t>古希腊农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>古希臘經濟</t>
+    <t>古希腊经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>古希臘法律</t>
+    <t>古希腊法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
   </si>
   <si>
-    <t>古希臘賣淫業</t>
+    <t>古希腊卖淫业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古希臘宗教</t>
+    <t>古希腊宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>希臘英雄崇拜</t>
+    <t>希腊英雄崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
@@ -413,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
   </si>
   <si>
-    <t>古希臘葡萄酒</t>
+    <t>古希腊葡萄酒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古希臘同性戀</t>
+    <t>古希腊同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
   </si>
   <si>
-    <t>古希臘少年愛</t>
+    <t>古希腊少年爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
   </si>
   <si>
-    <t>高爾吉亞</t>
+    <t>高尔吉亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%A5%BF%E4%BF%84%E5%BE%B7</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
   </si>
   <si>
-    <t>普魯塔克</t>
+    <t>普鲁塔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
   </si>
   <si>
-    <t>阿斯帕齊婭</t>
+    <t>阿斯帕齐娅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>來古格士</t>
+    <t>来古格士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古希臘建築</t>
+    <t>古希腊建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>古希臘神廟</t>
+    <t>古希腊神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>帕德嫩神廟</t>
+    <t>帕德嫩神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
   </si>
   <si>
-    <t>雅典衛城</t>
+    <t>雅典卫城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神廟</t>
+    <t>奥林匹亚宙斯神庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -803,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>古希臘神廟列表</t>
+    <t>古希腊神庙列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>古希臘藝術</t>
+    <t>古希腊艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%99%B6%E5%99%A8</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
   </si>
   <si>
-    <t>古希臘雕刻</t>
+    <t>古希腊雕刻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
@@ -833,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>希臘史學</t>
+    <t>希腊史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>古希臘天文學</t>
+    <t>古希腊天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
@@ -851,37 +851,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始希臘語</t>
+    <t>原始希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>邁錫尼希臘語</t>
+    <t>迈锡尼希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿提卡希臘語</t>
+    <t>阿提卡希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A6%AC%E5%85%B6%E9%A0%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>古馬其頓語</t>
+    <t>古马其顿语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用希臘語</t>
+    <t>通用希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>塞浦路斯音節文字</t>
+    <t>塞浦路斯音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>優卑亞字母</t>
+    <t>优卑亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
@@ -923,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5449,7 +5446,7 @@
         <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5475,10 +5472,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5504,10 +5501,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5533,10 +5530,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5562,10 +5559,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5591,10 +5588,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5620,10 +5617,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5649,10 +5646,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5678,10 +5675,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5707,10 +5704,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5736,10 +5733,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5765,10 +5762,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5794,10 +5791,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5823,10 +5820,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -5852,10 +5849,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5881,10 +5878,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5910,10 +5907,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5939,10 +5936,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5968,10 +5965,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5997,10 +5994,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6026,10 +6023,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6055,10 +6052,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6084,10 +6081,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6113,10 +6110,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>

--- a/xlsx/修昔底德_intext.xlsx
+++ b/xlsx/修昔底德_intext.xlsx
@@ -29,7 +29,7 @@
     <t>多伦多</t>
   </si>
   <si>
-    <t>政策_政策_政治學_修昔底德</t>
+    <t>体育运动_体育运动_古希腊_修昔底德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AE%89%E5%A4%A7%E7%95%A5%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
